--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3552830.607746226</v>
+        <v>3550453.98079886</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7820598.993825574</v>
+        <v>7820598.993825575</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.95245435214135</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>193.9481721195881</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>56.3083098349818</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>76.00777756309013</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>182.9377227717316</v>
+        <v>138.422775988213</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,7 +1108,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>35.96020998442019</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>211.4496987473639</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8165095851506514</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>196.4017961483592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138459</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569554</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784692</v>
+        <v>369.7311006784679</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012179</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>177.085011679401</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.974488840439583</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187878</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1686991936231</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.613741235233238</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.4584982637875</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C2" t="n">
-        <v>494.4959813233758</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D2" t="n">
-        <v>136.2302827166253</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166253</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4334,13 +4334,13 @@
         <v>442.517185281608</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872925</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.432083834915</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.432083834915</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.663428564801</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.197670303721</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1250.058338327909</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844858</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159573</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751773</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.9721493962184</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="C4" t="n">
-        <v>367.9721493962184</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="D4" t="n">
-        <v>367.9721493962184</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962184</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>276.1103319011203</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>108.1238672093989</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,7 +4486,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4519,19 +4519,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1140.063358537083</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>885.3788703311964</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>595.9617002942357</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X4" t="n">
-        <v>367.9721493962184</v>
+        <v>445.0465148290272</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.9721493962184</v>
+        <v>445.0465148290272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.953909778728</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838316</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333218</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437142</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.55374984285</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>2377.55374984285</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694947</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8408313751036</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1077.932040515969</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>823.2475523100816</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>533.8303822731209</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8408313751036</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8408313751036</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496355</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="C8" t="n">
-        <v>474.7217947496355</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>474.7217947496355</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>474.7217947496355</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>63.73588996002798</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>52.07154372472091</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>52.07154372472091</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664334</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320763</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050649</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.460966789569</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137573</v>
+        <v>1416.181083656476</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>423.1489515180663</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694947</v>
+        <v>717.8525085495381</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906388</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644086</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208785</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969299</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.581316546017</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181099</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>235.528494205774</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>235.528494205774</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.528494205774</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.528494205774</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660652</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417805</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197871</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762568</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454444</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159268</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,40 +5507,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,22 +5744,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,13 +5768,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400749</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121681</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121681</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121681</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>198.0274703142579</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611862</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138444</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703145</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9556134883076197</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878337</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.277957053354437e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.32043864788736</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>141.4594738061296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>62.35543909864558</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856538</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>43.26526345294944</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245465</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.508266634651779e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707215</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707295</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707304</v>
+        <v>6897.424496707392</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707352</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.424496707286</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707275</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707372</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.424496707321</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707383</v>
+        <v>6897.424496707343</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580135.6457229267</v>
+        <v>-580135.6457229266</v>
       </c>
       <c r="C6" t="n">
-        <v>534616.1378529927</v>
+        <v>534616.1378529929</v>
       </c>
       <c r="D6" t="n">
-        <v>534616.1378529926</v>
+        <v>534616.137852992</v>
       </c>
       <c r="E6" t="n">
-        <v>131105.2087680944</v>
+        <v>131070.47084266</v>
       </c>
       <c r="F6" t="n">
-        <v>638590.6503926412</v>
+        <v>638555.9124672054</v>
       </c>
       <c r="G6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="H6" t="n">
-        <v>638590.6503926411</v>
+        <v>638555.9124672053</v>
       </c>
       <c r="I6" t="n">
-        <v>638590.6503926408</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="J6" t="n">
-        <v>470985.4725826586</v>
+        <v>470950.7346572226</v>
       </c>
       <c r="K6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="L6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="M6" t="n">
-        <v>505983.356663714</v>
+        <v>505948.6187382784</v>
       </c>
       <c r="N6" t="n">
-        <v>638590.650392641</v>
+        <v>638555.912467205</v>
       </c>
       <c r="O6" t="n">
-        <v>638590.6503926411</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="P6" t="n">
-        <v>638590.6503926411</v>
+        <v>638555.9124672051</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,40 +26790,40 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.2236559077788e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241352</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996105</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996103</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.223655907778799e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.2236559077788e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996105</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.9779157201204</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>57.09707800887395</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014707</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>210.2193765581105</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>186.7933779067374</v>
+        <v>231.308324690256</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>250.2669441367804</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>153.8231930236436</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.89340308731987</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>55.73584717546876</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227451</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>1.139538119038411e-12</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.86741080007012e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.958360270247413e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.681160033680118e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.500666257925331e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31042,7 +31042,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
@@ -31060,7 +31060,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166594</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.4038763438002</v>
@@ -31130,22 +31130,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.462496416876</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
         <v>14.97566335231072</v>
@@ -31212,10 +31212,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067958</v>
@@ -31230,13 +31230,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
         <v>0.09187523529024984</v>
@@ -31279,7 +31279,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31297,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31367,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31449,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31467,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547051</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561985</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500036</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067521</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
         <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949736</v>
       </c>
       <c r="P2" t="n">
         <v>308.7456939637948</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>187.5431097317924</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34787,16 +34787,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928738</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961229</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
         <v>173.424759342349</v>
@@ -34863,7 +34863,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860244</v>
@@ -34872,7 +34872,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
         <v>54.881755458054</v>
@@ -34936,7 +34936,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34945,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313202</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35100,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35109,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313202</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>528.7520287839569</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748309</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35583,10 +35583,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146268</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728652</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295357</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36926,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.6592569279853</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
